--- a/scientisttools/datasets/temperature.xlsx
+++ b/scientisttools/datasets/temperature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,31 @@
           <t>Dec</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>moy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>amp</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Lati</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>groupe</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,6 +567,23 @@
       <c r="M2" t="n">
         <v>6.2</v>
       </c>
+      <c r="N2" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -585,6 +627,23 @@
       <c r="M3" t="n">
         <v>7</v>
       </c>
+      <c r="N3" t="n">
+        <v>10.76666666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -628,6 +687,23 @@
       <c r="M4" t="n">
         <v>3.6</v>
       </c>
+      <c r="N4" t="n">
+        <v>10.94166666666666</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -671,6 +747,23 @@
       <c r="M5" t="n">
         <v>2.3</v>
       </c>
+      <c r="N5" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -714,6 +807,23 @@
       <c r="M6" t="n">
         <v>3.5</v>
       </c>
+      <c r="N6" t="n">
+        <v>9.733333333333333</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -757,6 +867,23 @@
       <c r="M7" t="n">
         <v>3.1</v>
       </c>
+      <c r="N7" t="n">
+        <v>11.35833333333333</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -800,6 +927,23 @@
       <c r="M8" t="n">
         <v>6.9</v>
       </c>
+      <c r="N8" t="n">
+        <v>14.23333333333333</v>
+      </c>
+      <c r="O8" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -843,6 +987,23 @@
       <c r="M9" t="n">
         <v>6.5</v>
       </c>
+      <c r="N9" t="n">
+        <v>13.89166666666667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -886,6 +1047,23 @@
       <c r="M10" t="n">
         <v>5.5</v>
       </c>
+      <c r="N10" t="n">
+        <v>11.69166666666667</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -929,6 +1107,23 @@
       <c r="M11" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="N11" t="n">
+        <v>14.84166666666667</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43.42</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -972,6 +1167,23 @@
       <c r="M12" t="n">
         <v>4.3</v>
       </c>
+      <c r="N12" t="n">
+        <v>11.18333333333334</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1015,6 +1227,23 @@
       <c r="M13" t="n">
         <v>5.4</v>
       </c>
+      <c r="N13" t="n">
+        <v>11.13333333333333</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1058,6 +1287,23 @@
       <c r="M14" t="n">
         <v>1.3</v>
       </c>
+      <c r="N14" t="n">
+        <v>9.716666666666667</v>
+      </c>
+      <c r="O14" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1101,6 +1347,23 @@
       <c r="M15" t="n">
         <v>5.5</v>
       </c>
+      <c r="N15" t="n">
+        <v>12.68333333333333</v>
+      </c>
+      <c r="O15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1144,6 +1407,503 @@
       <c r="M16" t="n">
         <v>3.4</v>
       </c>
+      <c r="N16" t="n">
+        <v>10.71666666666667</v>
+      </c>
+      <c r="O16" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="P16" t="n">
+        <v>46.08</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Anvers</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Athènes</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Barcelone</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Bruxelles</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Budapest</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Cracovie</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
